--- a/biology/Médecine/Institut_de_puériculture_et_de_périnatalogie/Institut_de_puériculture_et_de_périnatalogie.xlsx
+++ b/biology/Médecine/Institut_de_puériculture_et_de_périnatalogie/Institut_de_puériculture_et_de_périnatalogie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_de_pu%C3%A9riculture_et_de_p%C3%A9rinatalogie</t>
+          <t>Institut_de_puériculture_et_de_périnatalogie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut de puériculture et de périnatalogie (IPP) est situé sur le boulevard Brune entre les portes de Vanves et Didot dans le 14e arrondissement de Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_de_pu%C3%A9riculture_et_de_p%C3%A9rinatalogie</t>
+          <t>Institut_de_puériculture_et_de_périnatalogie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet institut est à la fois :
 un hôpital avec un centre de médecine fœtale, un service de pédiatrie néo-natale, soins intensifs et réanimation néo-natale, des consultations pour le suivi des prématurés ;
@@ -523,7 +537,7 @@
 un dispensaire médico-psychologique ("Guidance") pour enfants présentant des difficultés psychologiques (comportement, sommeil, alimentation, etc.) ;
 un hôpital de jour pour enfants psychotiques, autistes, limites.
 Autrefois géré par l'association ADHMI, depuis novembre 2011, l'ensemble de ces services est désormais placé sous l'égide de l'AP-HP (Necker Enfants-Malades), pour les structures néonatales, et l'association des Fondations Hospitalières Sainte-Marie et Sainte-Anne, pour les autres.
-Les bâtiments sont réalisés par les architectes Charles Duval et Emmanuel Gonse, de 1928 à 1933[1].
+Les bâtiments sont réalisés par les architectes Charles Duval et Emmanuel Gonse, de 1928 à 1933.
 </t>
         </is>
       </c>
